--- a/data/trans_dic/P36B01_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B01_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,21; 96,33</t>
+          <t>86,33; 95,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>89,85; 97,21</t>
+          <t>88,92; 97,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,91; 96,07</t>
+          <t>89,57; 95,7</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,89; 97,53</t>
+          <t>91,62; 97,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,3; 96,77</t>
+          <t>92,48; 96,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,22; 96,61</t>
+          <t>93,25; 96,67</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,55; 95,34</t>
+          <t>90,54; 95,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,93; 95,59</t>
+          <t>92,01; 95,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,83; 94,87</t>
+          <t>92,12; 94,88</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,84; 96,52</t>
+          <t>92,66; 96,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,03; 96,51</t>
+          <t>94,0; 96,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,1; 96,33</t>
+          <t>93,93; 96,2</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,33; 97,62</t>
+          <t>94,32; 97,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,44; 96,98</t>
+          <t>94,27; 96,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,84; 96,96</t>
+          <t>94,95; 96,9</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,28; 97,75</t>
+          <t>95,5; 97,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,71; 97,72</t>
+          <t>95,64; 97,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>95,87; 97,42</t>
+          <t>95,9; 97,49</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>93,97; 95,83</t>
+          <t>94,06; 95,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>94,74; 96,14</t>
+          <t>94,72; 96,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>94,56; 95,75</t>
+          <t>94,68; 95,78</t>
         </is>
       </c>
     </row>
